--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669917.041169887</v>
+        <v>1667419.305819437</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395846</v>
+        <v>10956994.25395845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>12.93856390941627</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.331086635932</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916328</v>
+        <v>1.36059768091701</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>277.4910567360994</v>
       </c>
       <c r="X2" t="n">
-        <v>319.9724235406906</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>165.0283793981794</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370732</v>
+        <v>45.84481919370752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353343</v>
+        <v>21.62032152353378</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
       </c>
       <c r="U3" t="n">
-        <v>224.3533578031902</v>
+        <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40.82048829989429</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768617</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.26275241333111</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>234.2062080538241</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>160.3772734866057</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>139.1952120853246</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>202.3860496764734</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>324.9188572444185</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>247.8117806720557</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712602</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.7518808581214</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>44.75138076689272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214424</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756226</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
-        <v>96.99837838564352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>28.54004930889236</v>
       </c>
       <c r="T37" t="n">
-        <v>98.7489785493142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
-        <v>64.91921363453612</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892427807</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588567</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.332935991188</v>
+        <v>1589.772548948785</v>
       </c>
       <c r="C2" t="n">
-        <v>1001.332935991188</v>
+        <v>1220.810032008373</v>
       </c>
       <c r="D2" t="n">
-        <v>1001.332935991188</v>
+        <v>862.5443334016225</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991188</v>
+        <v>476.7560808033783</v>
       </c>
       <c r="F2" t="n">
-        <v>590.3470312015809</v>
+        <v>65.77017601377071</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870189</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870189</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088538</v>
+        <v>72.11519083088449</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118224</v>
+        <v>151.9506691118202</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181053</v>
+        <v>701.3800037181013</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639728</v>
+        <v>1329.332547639723</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094872</v>
+        <v>1952.814022680355</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291968</v>
+        <v>2494.726756291971</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2602.377499016429</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827793</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.306059484222</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="W2" t="n">
-        <v>1324.537404214108</v>
+        <v>2353.377639185676</v>
       </c>
       <c r="X2" t="n">
-        <v>1001.332935991188</v>
+        <v>1979.911880924596</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.332935991188</v>
+        <v>1589.772548948785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>966.6504081935058</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>792.1973789123788</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>643.2629692511275</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>484.0255142456721</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>337.490956272557</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679828</v>
+        <v>200.0378524679831</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150748</v>
+        <v>99.008817715075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4410,22 +4410,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524144</v>
+        <v>380.2766518524135</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900087</v>
+        <v>882.1470455900067</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912398</v>
+        <v>1519.785345024894</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1715.458095681186</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751182</v>
+        <v>2262.164335642188</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115996</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4434,25 +4434,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375422</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
         <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>862.1314983912256</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>693.1953154633187</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>543.0786760509829</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>395.1655824685898</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>248.2756349706795</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131526</v>
+        <v>152.6313247131521</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039136</v>
+        <v>336.0342731039124</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856121</v>
+        <v>539.7960902856101</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066377</v>
+        <v>744.1475233066351</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249435</v>
+        <v>916.8828514249403</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.16708335132</v>
+        <v>1041.167083351316</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="R4" t="n">
-        <v>1032.403445632246</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="S4" t="n">
-        <v>824.7921286804777</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="T4" t="n">
-        <v>824.7921286804777</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="U4" t="n">
-        <v>824.7921286804777</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="V4" t="n">
-        <v>570.1076404745909</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="W4" t="n">
-        <v>280.6904704376302</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="X4" t="n">
-        <v>52.70091953961285</v>
+        <v>1043.779963221465</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.70091953961285</v>
+        <v>1043.779963221465</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1709.443640797684</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="C5" t="n">
-        <v>1340.481123857273</v>
+        <v>1564.005673461199</v>
       </c>
       <c r="D5" t="n">
-        <v>982.2154252505222</v>
+        <v>1205.739974854449</v>
       </c>
       <c r="E5" t="n">
-        <v>596.427172652278</v>
+        <v>819.9517222562047</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>408.9658174665971</v>
       </c>
       <c r="G5" t="n">
         <v>172.393890139502</v>
@@ -4577,10 +4577,10 @@
         <v>1661.933351782553</v>
       </c>
       <c r="N5" t="n">
-        <v>1856.267564674535</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O5" t="n">
-        <v>2403.428769441613</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2473.048731034576</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2473.048731034576</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2473.048731034576</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>2473.048731034576</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="X5" t="n">
-        <v>2099.582972773496</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1709.443640797684</v>
+        <v>1932.968190401611</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>346.1860297752922</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
         <v>986.7313792423969</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.1977120421399</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C7" t="n">
-        <v>368.1977120421399</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D7" t="n">
-        <v>368.1977120421399</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
         <v>52.70091953961285</v>
@@ -4756,19 +4756,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>508.7989363707505</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>368.1977120421399</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>368.1977120421399</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.1977120421399</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1577.748676105878</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="C8" t="n">
-        <v>1577.748676105878</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="D8" t="n">
-        <v>1219.482977499127</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="E8" t="n">
-        <v>833.6947249008831</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F8" t="n">
-        <v>422.7088201112755</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.214434366958</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.748676105878</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y8" t="n">
-        <v>1577.748676105878</v>
+        <v>719.1177791429284</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5567829601589</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C10" t="n">
-        <v>497.620600032252</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -5002,10 +5002,10 @@
         <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1078794360185</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.2052477903986</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.043492616109</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327661</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048592</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>945.4026036630058</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>449.4852666057155</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433587</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>415.5933575433587</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6962,7 +6962,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>700.7543264856228</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T37" t="n">
-        <v>2164.361806256059</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U37" t="n">
-        <v>1875.286579600257</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V37" t="n">
-        <v>1620.602091394371</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.18492135741</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.195370459393</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.4027913158625</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2131.487582220359</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400676</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121607</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121607</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121607</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510505</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854702</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648815</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611855</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138374</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703073</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7988,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>435.6948985680547</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>379.1481554188289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888727</v>
+        <v>7.32812118887324</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>394.8286567893815</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.586361679327</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8225,13 +8225,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>30.21968338400228</v>
       </c>
       <c r="P5" t="n">
-        <v>86.76642653324078</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>89.54312379457414</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>184.4078422411148</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.70888054695219</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060008</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.6820817884478</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.257951202385613</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516657</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.4862366927522</v>
       </c>
       <c r="T37" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4862366927521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909865318</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.11969353038745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963195.782401813</v>
+        <v>963195.7824018132</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918881</v>
+        <v>787455.5478918857</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849942</v>
+        <v>4906.247008501762</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765842</v>
+        <v>775688.3472765853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909051</v>
+        <v>190891.9800909056</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="I4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707368</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>6897.424496707368</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670737</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051737</v>
+        <v>86500.62127051731</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26476,10 +26476,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531170.9988415263</v>
+        <v>-531170.9988415246</v>
       </c>
       <c r="C6" t="n">
-        <v>252261.0131441904</v>
+        <v>252261.0131441883</v>
       </c>
       <c r="D6" t="n">
         <v>257167.2601526901</v>
       </c>
       <c r="E6" t="n">
-        <v>-359063.011798695</v>
+        <v>-359097.7497241315</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524543</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="J6" t="n">
-        <v>244264.3430776086</v>
+        <v>244229.605152173</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778896</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="M6" t="n">
-        <v>288547.738662176</v>
+        <v>288513.0007367398</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524537</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225479</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,10 +26796,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225479</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915514594</v>
+        <v>5.387915915517166</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359324</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459285</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050974</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>71.74991198131363</v>
       </c>
       <c r="X2" t="n">
-        <v>49.75867713777848</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.504804251687915</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.504804251687062</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>126.1100041686222</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097206</v>
+        <v>123.5587419097208</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775188</v>
+        <v>18.38275699775221</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.347292076069</v>
+        <v>129.6100444894003</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822506</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27594,13 +27594,13 @@
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>178.7106958921127</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.27458962836027</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27828,19 +27828,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>147.3277862512664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562134</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>57.81498441906206</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>165.105123273881</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30876,13 +30876,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718794</v>
+        <v>2.364173605718784</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956761</v>
+        <v>24.2120929395675</v>
       </c>
       <c r="I2" t="n">
-        <v>91.1448029344739</v>
+        <v>91.1448029344735</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683757</v>
+        <v>200.6562795683748</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984523</v>
+        <v>300.731748298451</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844689</v>
+        <v>373.0843262844673</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451705</v>
+        <v>415.1281986451687</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024191</v>
+        <v>421.8454069024172</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105528</v>
+        <v>398.336655610551</v>
       </c>
       <c r="P2" t="n">
-        <v>339.97111971937</v>
+        <v>339.9711197193685</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645656</v>
+        <v>255.3041524645645</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602334</v>
+        <v>148.5085202602327</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031708</v>
+        <v>53.87360604031684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903403</v>
+        <v>10.34916995903398</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575035</v>
+        <v>0.1891338884575026</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682467</v>
+        <v>1.264944396682462</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111751</v>
+        <v>12.21669983111746</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770775</v>
+        <v>43.55181365770756</v>
       </c>
       <c r="J3" t="n">
-        <v>119.509505477794</v>
+        <v>119.5095054777935</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555193</v>
+        <v>204.2607800555184</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305506</v>
+        <v>274.6538261305494</v>
       </c>
       <c r="M3" t="n">
-        <v>320.50806051029</v>
+        <v>320.5080605102885</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704984</v>
+        <v>328.9909551704969</v>
       </c>
       <c r="O3" t="n">
-        <v>300.96245038085</v>
+        <v>300.9624503808486</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489529</v>
+        <v>241.5488997489518</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.469042636169</v>
+        <v>161.4690426361683</v>
       </c>
       <c r="R3" t="n">
-        <v>78.5375126291097</v>
+        <v>78.53751262910936</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820283</v>
+        <v>23.49578736820272</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908714</v>
+        <v>5.098613598908692</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753076</v>
+        <v>0.0832200260975304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942304</v>
+        <v>1.060486889942299</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577948</v>
+        <v>9.428692530577905</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753766</v>
+        <v>31.89173301753752</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892089</v>
+        <v>74.97642311892056</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314786</v>
+        <v>123.209295031478</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646949</v>
+        <v>157.6654781646942</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934104</v>
+        <v>166.2361403934097</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308983</v>
+        <v>162.2834165308976</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983905</v>
+        <v>149.8950014983898</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435674</v>
+        <v>128.2610689435668</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780513</v>
+        <v>88.80131584780473</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877694</v>
+        <v>47.6833468877692</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472178</v>
+        <v>18.4813942547217</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026207</v>
+        <v>4.531171257026187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139847</v>
+        <v>0.05784473945139822</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
-        <v>270.4557004614718</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927461</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168942</v>
+        <v>19.61037504168851</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347177</v>
+        <v>80.6418972534704</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649321</v>
+        <v>554.9791258649304</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107303</v>
+        <v>634.2954989107285</v>
       </c>
       <c r="N2" t="n">
-        <v>628.1272418738829</v>
+        <v>629.7792677178104</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516114</v>
+        <v>547.3865996076931</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641005</v>
+        <v>108.738123964099</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011613</v>
+        <v>32.998462590115</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937389</v>
+        <v>330.884578093738</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541356</v>
+        <v>506.9397916541344</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882716</v>
+        <v>644.0790903382701</v>
       </c>
       <c r="N3" t="n">
-        <v>592.4778998765465</v>
+        <v>197.6492430871636</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131351</v>
+        <v>552.2285252131337</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745598</v>
+        <v>355.1608540139486</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014746</v>
+        <v>21.48726855014675</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055957</v>
+        <v>100.9398032055952</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250111</v>
+        <v>185.2555034250104</v>
       </c>
       <c r="M4" t="n">
-        <v>205.820017355251</v>
+        <v>205.8200173552503</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101269</v>
+        <v>206.4155889101262</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124301</v>
+        <v>174.4801294124295</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084608</v>
+        <v>125.5396282084603</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110743</v>
+        <v>2.639272596110345</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>202.1075877445674</v>
       </c>
       <c r="P5" t="n">
-        <v>198.6192803206413</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35018,10 +35018,10 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>228.1588793659822</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>365.7182830033419</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
-        <v>136.4812930471415</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483017</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899066</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
